--- a/Data/class.xlsx
+++ b/Data/class.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\time_table\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\t\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2A9991B-3300-4346-93F3-7790B8DB4C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AB0C0A-D3B8-40BC-8A0F-6B470714D194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="450" windowWidth="14400" windowHeight="7270" xr2:uid="{51086C36-9FEB-478B-8D33-9BF07D643F4F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{51086C36-9FEB-478B-8D33-9BF07D643F4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,27 +35,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Class Name</t>
   </si>
   <si>
-    <t>TE1</t>
-  </si>
-  <si>
-    <t>TE2</t>
-  </si>
-  <si>
-    <t>TE3</t>
-  </si>
-  <si>
-    <t>TE4</t>
-  </si>
-  <si>
-    <t>TE5</t>
-  </si>
-  <si>
-    <t>TE6</t>
+    <t>te1</t>
+  </si>
+  <si>
+    <t>te2</t>
+  </si>
+  <si>
+    <t>te3</t>
+  </si>
+  <si>
+    <t>te4</t>
+  </si>
+  <si>
+    <t>te5</t>
+  </si>
+  <si>
+    <t>te6</t>
+  </si>
+  <si>
+    <t>te7</t>
+  </si>
+  <si>
+    <t>te8</t>
   </si>
 </sst>
 </file>
@@ -407,13 +413,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2155632C-2480-4159-B473-C9C25145B9B1}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -450,6 +459,16 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/class.xlsx
+++ b/Data/class.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\t\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\time_table\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AB0C0A-D3B8-40BC-8A0F-6B470714D194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829CCED6-F343-4FCB-82B6-B6AC002DCE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{51086C36-9FEB-478B-8D33-9BF07D643F4F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Class Name</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>te8</t>
+  </si>
+  <si>
+    <t>&lt;- Don’t disturb the layout</t>
   </si>
 </sst>
 </file>
@@ -413,58 +416,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2155632C-2480-4159-B473-C9C25145B9B1}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.08984375" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
